--- a/createF10TestCase/jiachao.xlsx
+++ b/createF10TestCase/jiachao.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
-  <si>
-    <t>test_case_id</t>
-  </si>
-  <si>
-    <t>test_case_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+  <si>
+    <t>interface_abbreviation</t>
+  </si>
+  <si>
+    <t>interface_name</t>
   </si>
   <si>
     <t>path</t>
@@ -32,6 +32,285 @@
   </si>
   <si>
     <t>market</t>
+  </si>
+  <si>
+    <t>auto_param_structure</t>
+  </si>
+  <si>
+    <t>stock_search_site</t>
+  </si>
+  <si>
+    <t>newindex_01</t>
+  </si>
+  <si>
+    <t>最新指标</t>
+  </si>
+  <si>
+    <t>/v2/newindex</t>
+  </si>
+  <si>
+    <t>{"Token":"MitakeWeb","src":"d"}</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>HK1000,HK1010,HK1004,HK1400,HKAHG,HKGQ,HKHC,HKLC,HSI,HKTong,HKUA2301,SZHK,SHHGT,SZSGT,HKGGT</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>dividend_01</t>
+  </si>
+  <si>
+    <t>分红配送</t>
+  </si>
+  <si>
+    <t>/v2/dividend</t>
+  </si>
+  <si>
+    <t>companymain_01</t>
+  </si>
+  <si>
+    <t>基本情况</t>
+  </si>
+  <si>
+    <t>/v2/companymain</t>
+  </si>
+  <si>
+    <t>leaderposition_01</t>
+  </si>
+  <si>
+    <t>管理层</t>
+  </si>
+  <si>
+    <t>/v2/leaderposition</t>
+  </si>
+  <si>
+    <t>mainfinadatanas_01</t>
+  </si>
+  <si>
+    <t>财务报表</t>
+  </si>
+  <si>
+    <t>/v2/mainfinadatanas</t>
+  </si>
+  <si>
+    <t>mainfinaindexnas_01</t>
+  </si>
+  <si>
+    <t>财务指标</t>
+  </si>
+  <si>
+    <t>/v2/mainfinaindexnas</t>
+  </si>
+  <si>
+    <t>sharechange_01</t>
+  </si>
+  <si>
+    <t>股本变动</t>
+  </si>
+  <si>
+    <t>/v2/sharechange</t>
+  </si>
+  <si>
+    <t>shnumber_01</t>
+  </si>
+  <si>
+    <t>股东变动</t>
+  </si>
+  <si>
+    <t>/v2/shnumber</t>
+  </si>
+  <si>
+    <t>holdashareur10_01</t>
+  </si>
+  <si>
+    <t>最新十大自然人股股东</t>
+  </si>
+  <si>
+    <t>/v2/holdashareur10</t>
+  </si>
+  <si>
+    <t>holdashareurnew10_01</t>
+  </si>
+  <si>
+    <t>最新十大机构股东</t>
+  </si>
+  <si>
+    <t>/v2/holdashareurnew10</t>
+  </si>
+  <si>
+    <t>fndbasicinfo_01</t>
+  </si>
+  <si>
+    <t>基金基础概况</t>
+  </si>
+  <si>
+    <t>/v2/fndbasicinfo</t>
+  </si>
+  <si>
+    <t>SH1110,SZ1110,SH1120,SZ1120,SZ1140,HK1100</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>fndnav_01</t>
+  </si>
+  <si>
+    <t>基金净值</t>
+  </si>
+  <si>
+    <t>/v2/fndnav</t>
+  </si>
+  <si>
+    <t>fndassetconf_01</t>
+  </si>
+  <si>
+    <t>资产配置</t>
+  </si>
+  <si>
+    <t>/v2/fndassetconf</t>
+  </si>
+  <si>
+    <t>fndindustryportfolio_01</t>
+  </si>
+  <si>
+    <t>行业组合</t>
+  </si>
+  <si>
+    <t>/v2/fndindustryportfolio</t>
+  </si>
+  <si>
+    <t>fndstkportfolio_01</t>
+  </si>
+  <si>
+    <t>股票组合</t>
+  </si>
+  <si>
+    <t>/v2/fndstkportfolio</t>
+  </si>
+  <si>
+    <t>fndsharestru_01</t>
+  </si>
+  <si>
+    <t>份额结构</t>
+  </si>
+  <si>
+    <t>/v2/fndsharestru</t>
+  </si>
+  <si>
+    <t>fndfinance_01</t>
+  </si>
+  <si>
+    <t>基金财务</t>
+  </si>
+  <si>
+    <t>/v2/fndfinance</t>
+  </si>
+  <si>
+    <t>fnddividend_01</t>
+  </si>
+  <si>
+    <t>基金分红</t>
+  </si>
+  <si>
+    <t>fndclassinfo_01</t>
+  </si>
+  <si>
+    <t>分级基金-概况-基本信息</t>
+  </si>
+  <si>
+    <t>/v2/fndclassinfo</t>
+  </si>
+  <si>
+    <t>SH1133</t>
+  </si>
+  <si>
+    <t>fndclassstockpre_01</t>
+  </si>
+  <si>
+    <t>分级基金-持仓</t>
+  </si>
+  <si>
+    <t>/v2/fndclassstockpre</t>
+  </si>
+  <si>
+    <t>fndclassforcast_01</t>
+  </si>
+  <si>
+    <t>分级基金-诊断</t>
+  </si>
+  <si>
+    <t>/v2/fndclassforcast</t>
+  </si>
+  <si>
+    <t>fndclasssubredinfo_01</t>
+  </si>
+  <si>
+    <t>分级基金-认(申)购</t>
+  </si>
+  <si>
+    <t>/v2/fndclasssubredinfo</t>
+  </si>
+  <si>
+    <t>fndclassmergesplit_01</t>
+  </si>
+  <si>
+    <t>分级基金-合并(拆分)</t>
+  </si>
+  <si>
+    <t>/v2/fndclassmergesplit</t>
+  </si>
+  <si>
+    <t>fndclassconverted_01</t>
+  </si>
+  <si>
+    <t>分级基金-概况-折算说明</t>
+  </si>
+  <si>
+    <t>/v2/fndclassconverted</t>
+  </si>
+  <si>
+    <t>fndclassmasterrate_01</t>
+  </si>
+  <si>
+    <t>分级基金-概况-母基金费用说明</t>
+  </si>
+  <si>
+    <t>/v2/fndclassmasterrate</t>
+  </si>
+  <si>
+    <t>bndbasicinfo_01</t>
+  </si>
+  <si>
+    <t>债券基础概况</t>
+  </si>
+  <si>
+    <t>/v2/bndbasicinfo</t>
+  </si>
+  <si>
+    <t>SH1300,HK1300,SZ1300</t>
+  </si>
+  <si>
+    <t>bndinterestpay_01</t>
+  </si>
+  <si>
+    <t>付息情况</t>
+  </si>
+  <si>
+    <t>/v2/bndinterestpay</t>
+  </si>
+  <si>
+    <t>bndbuybacks_01</t>
+  </si>
+  <si>
+    <t>债券回购</t>
+  </si>
+  <si>
+    <t>/v2/bndbuybacks</t>
   </si>
 </sst>
 </file>
@@ -39,12 +318,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +339,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF008080"/>
@@ -67,10 +353,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,6 +370,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,8 +391,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +460,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -119,69 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -190,26 +491,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,61 +506,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,67 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,49 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,21 +714,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +748,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,8 +777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,160 +802,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -990,40 +1282,721 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.8666666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.0666666666667" customWidth="1"/>
-    <col min="3" max="3" width="5.46666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.46666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.9333333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.06666666666667" customWidth="1"/>
+    <col min="1" max="1" width="23.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9083333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="55" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="28" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/createF10TestCase/jiachao.xlsx
+++ b/createF10TestCase/jiachao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>interface_abbreviation</t>
   </si>
@@ -40,7 +40,7 @@
     <t>stock_search_site</t>
   </si>
   <si>
-    <t>newindex_01</t>
+    <t>newindex</t>
   </si>
   <si>
     <t>最新指标</t>
@@ -61,7 +61,7 @@
     <t>hk</t>
   </si>
   <si>
-    <t>dividend_01</t>
+    <t>dividend</t>
   </si>
   <si>
     <t>分红配送</t>
@@ -70,7 +70,7 @@
     <t>/v2/dividend</t>
   </si>
   <si>
-    <t>companymain_01</t>
+    <t>companymain</t>
   </si>
   <si>
     <t>基本情况</t>
@@ -79,7 +79,7 @@
     <t>/v2/companymain</t>
   </si>
   <si>
-    <t>leaderposition_01</t>
+    <t>leaderposition</t>
   </si>
   <si>
     <t>管理层</t>
@@ -88,7 +88,7 @@
     <t>/v2/leaderposition</t>
   </si>
   <si>
-    <t>mainfinadatanas_01</t>
+    <t>mainfinadatanas</t>
   </si>
   <si>
     <t>财务报表</t>
@@ -97,7 +97,7 @@
     <t>/v2/mainfinadatanas</t>
   </si>
   <si>
-    <t>mainfinaindexnas_01</t>
+    <t>mainfinaindexnas</t>
   </si>
   <si>
     <t>财务指标</t>
@@ -106,7 +106,7 @@
     <t>/v2/mainfinaindexnas</t>
   </si>
   <si>
-    <t>sharechange_01</t>
+    <t>sharechange</t>
   </si>
   <si>
     <t>股本变动</t>
@@ -115,7 +115,7 @@
     <t>/v2/sharechange</t>
   </si>
   <si>
-    <t>shnumber_01</t>
+    <t>shnumber</t>
   </si>
   <si>
     <t>股东变动</t>
@@ -124,7 +124,7 @@
     <t>/v2/shnumber</t>
   </si>
   <si>
-    <t>holdashareur10_01</t>
+    <t>holdashareur10</t>
   </si>
   <si>
     <t>最新十大自然人股股东</t>
@@ -133,7 +133,7 @@
     <t>/v2/holdashareur10</t>
   </si>
   <si>
-    <t>holdashareurnew10_01</t>
+    <t>holdashareurnew10</t>
   </si>
   <si>
     <t>最新十大机构股东</t>
@@ -142,7 +142,7 @@
     <t>/v2/holdashareurnew10</t>
   </si>
   <si>
-    <t>fndbasicinfo_01</t>
+    <t>fndbasicinfo</t>
   </si>
   <si>
     <t>基金基础概况</t>
@@ -157,7 +157,7 @@
     <t>pb</t>
   </si>
   <si>
-    <t>fndnav_01</t>
+    <t>fndnav</t>
   </si>
   <si>
     <t>基金净值</t>
@@ -166,7 +166,7 @@
     <t>/v2/fndnav</t>
   </si>
   <si>
-    <t>fndassetconf_01</t>
+    <t>fndassetconf</t>
   </si>
   <si>
     <t>资产配置</t>
@@ -175,7 +175,7 @@
     <t>/v2/fndassetconf</t>
   </si>
   <si>
-    <t>fndindustryportfolio_01</t>
+    <t>fndindustryportfolio</t>
   </si>
   <si>
     <t>行业组合</t>
@@ -184,7 +184,7 @@
     <t>/v2/fndindustryportfolio</t>
   </si>
   <si>
-    <t>fndstkportfolio_01</t>
+    <t>fndstkportfolio</t>
   </si>
   <si>
     <t>股票组合</t>
@@ -193,7 +193,7 @@
     <t>/v2/fndstkportfolio</t>
   </si>
   <si>
-    <t>fndsharestru_01</t>
+    <t>fndsharestru</t>
   </si>
   <si>
     <t>份额结构</t>
@@ -202,7 +202,7 @@
     <t>/v2/fndsharestru</t>
   </si>
   <si>
-    <t>fndfinance_01</t>
+    <t>fndfinance</t>
   </si>
   <si>
     <t>基金财务</t>
@@ -211,13 +211,13 @@
     <t>/v2/fndfinance</t>
   </si>
   <si>
-    <t>fnddividend_01</t>
+    <t>fnddividend</t>
   </si>
   <si>
     <t>基金分红</t>
   </si>
   <si>
-    <t>fndclassinfo_01</t>
+    <t>fndclassinfo</t>
   </si>
   <si>
     <t>分级基金-概况-基本信息</t>
@@ -229,7 +229,7 @@
     <t>SH1133</t>
   </si>
   <si>
-    <t>fndclassstockpre_01</t>
+    <t>fndclassstockpre</t>
   </si>
   <si>
     <t>分级基金-持仓</t>
@@ -238,7 +238,7 @@
     <t>/v2/fndclassstockpre</t>
   </si>
   <si>
-    <t>fndclassforcast_01</t>
+    <t>fndclassforcast</t>
   </si>
   <si>
     <t>分级基金-诊断</t>
@@ -247,7 +247,7 @@
     <t>/v2/fndclassforcast</t>
   </si>
   <si>
-    <t>fndclasssubredinfo_01</t>
+    <t>fndclasssubredinfo</t>
   </si>
   <si>
     <t>分级基金-认(申)购</t>
@@ -256,7 +256,7 @@
     <t>/v2/fndclasssubredinfo</t>
   </si>
   <si>
-    <t>fndclassmergesplit_01</t>
+    <t>fndclassmergesplit</t>
   </si>
   <si>
     <t>分级基金-合并(拆分)</t>
@@ -265,7 +265,7 @@
     <t>/v2/fndclassmergesplit</t>
   </si>
   <si>
-    <t>fndclassconverted_01</t>
+    <t>fndclassconverted</t>
   </si>
   <si>
     <t>分级基金-概况-折算说明</t>
@@ -274,7 +274,7 @@
     <t>/v2/fndclassconverted</t>
   </si>
   <si>
-    <t>fndclassmasterrate_01</t>
+    <t>fndclassmasterrate</t>
   </si>
   <si>
     <t>分级基金-概况-母基金费用说明</t>
@@ -283,7 +283,7 @@
     <t>/v2/fndclassmasterrate</t>
   </si>
   <si>
-    <t>bndbasicinfo_01</t>
+    <t>bndbasicinfo</t>
   </si>
   <si>
     <t>债券基础概况</t>
@@ -295,7 +295,7 @@
     <t>SH1300,HK1300,SZ1300</t>
   </si>
   <si>
-    <t>bndinterestpay_01</t>
+    <t>bndinterestpay</t>
   </si>
   <si>
     <t>付息情况</t>
@@ -304,13 +304,319 @@
     <t>/v2/bndinterestpay</t>
   </si>
   <si>
-    <t>bndbuybacks_01</t>
+    <t>bndbuybacks</t>
   </si>
   <si>
     <t>债券回购</t>
   </si>
   <si>
     <t>/v2/bndbuybacks</t>
+  </si>
+  <si>
+    <t>fndnavindex</t>
+  </si>
+  <si>
+    <t>12个月基金净值</t>
+  </si>
+  <si>
+    <t>/v2/fndnavindex</t>
+  </si>
+  <si>
+    <t>{"Token":"MitakeWeb","src":"d","type":"12"}</t>
+  </si>
+  <si>
+    <t>newsinteractive</t>
+  </si>
+  <si>
+    <t>董秘功能</t>
+  </si>
+  <si>
+    <t>/v2/newsinteractive</t>
+  </si>
+  <si>
+    <t>{"Token":"MitakeWeb","src":"d","param":"0,20"}</t>
+  </si>
+  <si>
+    <t>SH1001,SH1002,SZ1001,SZ1004,SH1005,SH1006,SZ1002,SH1540,SZ1005,SHS,SHP,SZS,SZZ,BJ1000,BJ1001,BJ1002,BJ1004,BJ1005,BJ1006,BJ1007,BJ1008,BJ1009,BJ1010,BJ1012,BJ1013,BJ1015,BJ1400</t>
+  </si>
+  <si>
+    <t>{"type":[["QUESTIONTIME","ANSWERTIME"],["_0","_1"]]}</t>
+  </si>
+  <si>
+    <t>finmrgninfoshare</t>
+  </si>
+  <si>
+    <t>个股融资融券接口（最近90天）</t>
+  </si>
+  <si>
+    <t>/v2/finmrgninfoshare</t>
+  </si>
+  <si>
+    <t>{"part":["TRADEDATE,TRADING,FINBALANCE,FINBUYAMT,FINREPAYAMT,FINROEBUY,MRGGBAL,MRGNRESQTY,MRGNSELLAMT,MRGNREPAYAMT,MRGNROESELL,FINMRGHBAL,FINMRGNBAL","TRADEDATE,TRADING,FINBALANCE,FINBUYAMT,FINREPAYAMT,FINROEBUY,MRGGBAL"]}</t>
+  </si>
+  <si>
+    <t>finmrgninfodiff</t>
+  </si>
+  <si>
+    <t>融资融券差额接口</t>
+  </si>
+  <si>
+    <t>/v2/finmrgninfodiff</t>
+  </si>
+  <si>
+    <t>{"part":["TRADEDATE,FINBALANCESUM,FINBUYAMTSUM,FINREPAYAMTSUM,MRGGBALSUM,FINMRGHBALSUM,FINMRGNBALSUM","TRADEDATE,FINBALANCESUM,FINBUYAMTSUM,FINREPAYAMTSUM"]}</t>
+  </si>
+  <si>
+    <t>finmrgninfomarket</t>
+  </si>
+  <si>
+    <t>分市场提供最近交易日融资融券数据</t>
+  </si>
+  <si>
+    <t>/v2/finmrgninfomarket</t>
+  </si>
+  <si>
+    <t>{"symbol":[["TRADEDATE","TRADING","FINBALANCE","FINBUYAMT","FINREPAYAMT","FINROEBUY","MRGGBAL","MRGNRESQTY","MRGNSELLAMT","MRGNREPAYAMT","MRGNROESELL","FINMRGHBAL","FINMRGNBAL"],["_sh","_sz","_sh_sz"],["_0","_1"]],"type":["TRADEDATE,TRADING,FINBALANCE,FINBUYAMT,FINREPAYAMT,FINROEBUY,MRGGBAL,MRGNRESQTY,MRGNSELLAMT,MRGNREPAYAMT,MRGNROESELL,FINMRGHBAL,FINMRGNBAL","TRADEDATE,TRADING,FINBALANCE,FINBUYAMT,FINREPAYAMT,FINROEBUY,MRGGBAL,MRGNRESQTY"]}</t>
+  </si>
+  <si>
+    <t>{"symbol":[["TRADEDATE","TRADING","FINBALANCE","FINBUYAMT","FINREPAYAMT","FINROEBUY","MRGGBAL","MRGNRESQTY","MRGNSELLAMT","MRGNREPAYAMT","MRGNROESELL","FINMRGHBAL","FINMRGNBAL"],["_sh","_sz","_sh_sz"],["_0","_1"]]}</t>
+  </si>
+  <si>
+    <t>iinvholdchg</t>
+  </si>
+  <si>
+    <t>深度股东数据</t>
+  </si>
+  <si>
+    <t>/v2/iinvholdchg</t>
+  </si>
+  <si>
+    <t>proindicdata</t>
+  </si>
+  <si>
+    <t>业绩公告</t>
+  </si>
+  <si>
+    <t>/v2/proindicdata</t>
+  </si>
+  <si>
+    <t>exptperformance</t>
+  </si>
+  <si>
+    <t>业绩预告</t>
+  </si>
+  <si>
+    <t>/v2/exptperformance</t>
+  </si>
+  <si>
+    <t>procfstatementnew</t>
+  </si>
+  <si>
+    <t>现金流量表</t>
+  </si>
+  <si>
+    <t>/v2/procfstatementnew</t>
+  </si>
+  <si>
+    <t>{"part":[["BIZCASHINFL","BIZCASHOUTF","MANANETR","INVCASHINFL","INVCASHOUTF","INVNETCASHFLOW","FINCASHINFL","FINCASHOUTF","FINNETCFLOW","CASHNETR"],["_0","_1","_2","_3","_4"]]}</t>
+  </si>
+  <si>
+    <t>probalsheetnew</t>
+  </si>
+  <si>
+    <t>资产负债表</t>
+  </si>
+  <si>
+    <t>/v2/probalsheetnew</t>
+  </si>
+  <si>
+    <t>{"part":[["TOTLIABSHAREQUI","TOTCURRASSET","CURFDS","TRADFINASSET","INVE","ACCORECE","OTHERRECE","FIXEDASSENET","AVAISELLASSE","INTAASSET","SHORTTERMBORR","ADVAPAYM","ACCOPAYA","TOTALCURRLIAB","SUNEVENNONCLIAB","TOTLIAB","PARESHARRIGH","CAPISURP","GOODWILL"],["_0","_1","_2","_3","_4"]]}</t>
+  </si>
+  <si>
+    <t>proincstatementnew</t>
+  </si>
+  <si>
+    <t>利润表</t>
+  </si>
+  <si>
+    <t>/v2/proincstatementnew</t>
+  </si>
+  <si>
+    <t>{"part":[["BIZINCO","BIZCOST","MANAEXPE","SALESEXPE","FINEXPE","PERPROFIT","INVEINCO","NONOPERINCOMEN","TOTPROFIT","PARENETP"],["_0","_1","_2","_3","_4"]]}</t>
+  </si>
+  <si>
+    <t>profinmainindex</t>
+  </si>
+  <si>
+    <t>主要指标</t>
+  </si>
+  <si>
+    <t>/v2/profinmainindex</t>
+  </si>
+  <si>
+    <t>{"part":[["REPORTTITLE","EPSBASIC","EPSDILUTED","NAPS","UPPS","CRPS","SGPMARGIN","OPPRORT","SNPMARGIN","ROEWEIGHTED","ROEDILUTED","CURRENTRT","QUICKRT","OPNCFPS"],["_0","_1","_2","_3","_4"]]}</t>
+  </si>
+  <si>
+    <t>shareholdernum</t>
+  </si>
+  <si>
+    <t>股东户数</t>
+  </si>
+  <si>
+    <t>/v2/shareholdernum</t>
+  </si>
+  <si>
+    <t>shareinfo</t>
+  </si>
+  <si>
+    <t>股本信息</t>
+  </si>
+  <si>
+    <t>/v2/shareinfo</t>
+  </si>
+  <si>
+    <t>shareholder10</t>
+  </si>
+  <si>
+    <t>十大股东</t>
+  </si>
+  <si>
+    <t>/v2/shareholder10</t>
+  </si>
+  <si>
+    <t>otsholder10</t>
+  </si>
+  <si>
+    <t>十大流通股东</t>
+  </si>
+  <si>
+    <t>/v2/otsholder10</t>
+  </si>
+  <si>
+    <t>companymanager</t>
+  </si>
+  <si>
+    <t>公司高管</t>
+  </si>
+  <si>
+    <t>/v2/companymanager</t>
+  </si>
+  <si>
+    <t>sharebonus</t>
+  </si>
+  <si>
+    <t>分红扩股</t>
+  </si>
+  <si>
+    <t>/v2/sharebonus</t>
+  </si>
+  <si>
+    <t>companyinfo</t>
+  </si>
+  <si>
+    <t>公司简介</t>
+  </si>
+  <si>
+    <t>/v2/companyinfo</t>
+  </si>
+  <si>
+    <t>exptskstatn</t>
+  </si>
+  <si>
+    <t>机构观点-一致预测</t>
+  </si>
+  <si>
+    <t>/v2/exptskstatn</t>
+  </si>
+  <si>
+    <t>exptskinvrating</t>
+  </si>
+  <si>
+    <t>机构观点-机构评级</t>
+  </si>
+  <si>
+    <t>/v2/exptskinvrating</t>
+  </si>
+  <si>
+    <t>blocktrade</t>
+  </si>
+  <si>
+    <t>大宗交易</t>
+  </si>
+  <si>
+    <t>/v2/blocktrade</t>
+  </si>
+  <si>
+    <t>tradingdetail</t>
+  </si>
+  <si>
+    <t>融资融券</t>
+  </si>
+  <si>
+    <t>/v2/tradingdetail</t>
+  </si>
+  <si>
+    <t>charts5sells</t>
+  </si>
+  <si>
+    <t>龙虎榜-卖出前5营业部</t>
+  </si>
+  <si>
+    <t>/v2/charts5sells</t>
+  </si>
+  <si>
+    <t>charts5buys</t>
+  </si>
+  <si>
+    <t>龙虎榜-买入前5营业部</t>
+  </si>
+  <si>
+    <t>/v2/charts5buys</t>
+  </si>
+  <si>
+    <t>businessinfo</t>
+  </si>
+  <si>
+    <t>主营构成</t>
+  </si>
+  <si>
+    <t>/v2/businessinfo</t>
+  </si>
+  <si>
+    <t>importnoticetitle</t>
+  </si>
+  <si>
+    <t>大事提醒---按标题</t>
+  </si>
+  <si>
+    <t>/v2/importnoticetitle</t>
+  </si>
+  <si>
+    <t>{"Token":"MitakeWeb","src":"d","params":"0,20"}</t>
+  </si>
+  <si>
+    <t>{"Token":"MitakeWeb","src":"d","params":"0,20","type":"new"}</t>
+  </si>
+  <si>
+    <t>{"part:":["ISPDF,TEXT,ID,TRADEDATE,REPTITLE","TEXT,ID,TRADEDATE"]}</t>
+  </si>
+  <si>
+    <t>importnoticedate</t>
+  </si>
+  <si>
+    <t>大事提醒---按时间</t>
+  </si>
+  <si>
+    <t>/v2/importnoticedate</t>
+  </si>
+  <si>
+    <t>importantindex</t>
+  </si>
+  <si>
+    <t>重要指标</t>
+  </si>
+  <si>
+    <t>/v2/importantindex</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,7 +1266,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1282,10 +1600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1314,16 +1632,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1998,6 +2316,1131 @@
       <c r="H29" s="1" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="30" ht="28" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="96" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" ht="96" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="177" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" ht="96" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" ht="123" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" ht="96" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" ht="340" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" ht="164" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="96" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="14" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" ht="26" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="14" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="26" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" ht="96" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" ht="136" spans="1:7">
+      <c r="A55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" ht="96" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" ht="218" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="96" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" ht="123" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" ht="96" spans="1:7">
+      <c r="A65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" ht="150" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" ht="96" spans="1:7">
+      <c r="A68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" ht="96" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" ht="96" spans="1:7">
+      <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="96" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="96" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" ht="96" spans="1:7">
+      <c r="A73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="96" spans="1:7">
+      <c r="A74" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" ht="96" spans="1:7">
+      <c r="A75" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" ht="96" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" ht="96" spans="1:7">
+      <c r="A77" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" ht="96" spans="1:7">
+      <c r="A78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" ht="96" spans="1:7">
+      <c r="A79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" ht="96" spans="1:7">
+      <c r="A80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" ht="96" spans="1:7">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" ht="96" spans="1:7">
+      <c r="A83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" ht="96" spans="1:7">
+      <c r="A84" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" ht="96" spans="1:7">
+      <c r="A85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" ht="96" spans="1:7">
+      <c r="A86" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" ht="96" spans="1:7">
+      <c r="A89" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" ht="96" spans="1:7">
+      <c r="A90" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" ht="96" spans="1:7">
+      <c r="A91" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" ht="96" spans="1:7">
+      <c r="A92" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" ht="96" spans="1:7">
+      <c r="A94" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
